--- a/tests/fixtures/models/4 - infra_year_timeslices/model/sets.xlsx
+++ b/tests/fixtures/models/4 - infra_year_timeslices/model/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\default\prove_vale\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\fixtures\models\4 - infra_year_timeslices\model_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73780BF-4F2C-46E8-A634-EDEA06A00237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B683863-45AF-47D1-855D-6E5167542770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_scenario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>scenario_Names</t>
   </si>
@@ -33,6 +33,9 @@
     <t>techs_Names</t>
   </si>
   <si>
+    <t>time_resoultion</t>
+  </si>
+  <si>
     <t>flows_Names</t>
   </si>
   <si>
@@ -48,10 +51,10 @@
     <t>hours</t>
   </si>
   <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>PV</t>
+    <t>base</t>
+  </si>
+  <si>
+    <t>PV_pp</t>
   </si>
   <si>
     <t>Coal_pp</t>
@@ -60,16 +63,22 @@
     <t>Mining</t>
   </si>
   <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
     <t>EE_PV</t>
   </si>
   <si>
     <t>EE_Coal</t>
   </si>
   <si>
+    <t>EE</t>
+  </si>
+  <si>
     <t>Coal</t>
-  </si>
-  <si>
-    <t>EE</t>
   </si>
   <si>
     <t>y1</t>
@@ -103,6 +112,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,7 +460,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +472,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +482,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -482,132 +641,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -627,22 +671,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
